--- a/test_fullStudents.xlsx
+++ b/test_fullStudents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\attendenceUtility\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A636AABC-7AE3-4A6C-9202-94E1380FC46B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5031C8C7-02C4-4258-AD83-0C77BB2F1E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" xr2:uid="{6BAA7509-1661-412C-9CB3-FEA09EA1934F}"/>
   </bookViews>
@@ -63,31 +63,31 @@
     <t>NAME</t>
   </si>
   <si>
-    <t>21BCB001</t>
-  </si>
-  <si>
-    <t>21BCB002</t>
-  </si>
-  <si>
-    <t>21BCB003</t>
-  </si>
-  <si>
-    <t>21BCB004</t>
-  </si>
-  <si>
-    <t>21BCB005</t>
-  </si>
-  <si>
-    <t>21BCB006</t>
-  </si>
-  <si>
-    <t>21BCB007</t>
-  </si>
-  <si>
-    <t>21BCB008</t>
-  </si>
-  <si>
     <t>Arko</t>
+  </si>
+  <si>
+    <t>BC001</t>
+  </si>
+  <si>
+    <t>BC002</t>
+  </si>
+  <si>
+    <t>BC003</t>
+  </si>
+  <si>
+    <t>ZX022</t>
+  </si>
+  <si>
+    <t>YW050</t>
+  </si>
+  <si>
+    <t>BC016</t>
+  </si>
+  <si>
+    <t>AX009</t>
+  </si>
+  <si>
+    <t>QW082</t>
   </si>
 </sst>
 </file>
@@ -442,7 +442,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -468,7 +468,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -476,7 +476,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -484,7 +484,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -492,7 +492,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -500,15 +500,15 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -516,7 +516,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/test_fullStudents.xlsx
+++ b/test_fullStudents.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\attendenceUtility\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5031C8C7-02C4-4258-AD83-0C77BB2F1E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B35580-699B-4B21-A063-7B3EE7CA68CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" xr2:uid="{6BAA7509-1661-412C-9CB3-FEA09EA1934F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6BAA7509-1661-412C-9CB3-FEA09EA1934F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Anurag</t>
   </si>
@@ -55,12 +46,6 @@
   </si>
   <si>
     <t>Ushnik</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>NAME</t>
   </si>
   <si>
     <t>Arko</t>
@@ -439,84 +424,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{050768DE-12C4-44B8-AA3B-9074336D6B16}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection sqref="A1:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
